--- a/terms.xlsx
+++ b/terms.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="250">
   <si>
     <t>ГОСТ</t>
   </si>
@@ -801,7 +801,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -864,28 +864,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -935,32 +913,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -995,7 +947,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1004,6 +956,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1018,29 +976,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1324,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G109" sqref="G109"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H120" sqref="H120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,11 +1289,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1363,9 +1303,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="14"/>
+    <row r="3" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1373,9 +1317,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="14"/>
+    <row r="4" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1383,9 +1331,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="14"/>
+    <row r="5" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1393,9 +1345,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="315" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="14"/>
+    <row r="6" spans="1:4" ht="315.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1403,9 +1359,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="14"/>
+    <row r="7" spans="1:4" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1413,9 +1373,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="14"/>
+    <row r="8" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1423,9 +1387,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="195" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="14"/>
+    <row r="9" spans="1:4" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1433,9 +1401,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="14"/>
+    <row r="10" spans="1:4" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
@@ -1443,9 +1415,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="14"/>
+    <row r="11" spans="1:4" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C11" s="6" t="s">
         <v>24</v>
       </c>
@@ -1453,9 +1429,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="14"/>
+    <row r="12" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C12" s="6" t="s">
         <v>26</v>
       </c>
@@ -1463,9 +1443,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="14"/>
+    <row r="13" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C13" s="6" t="s">
         <v>28</v>
       </c>
@@ -1473,9 +1457,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="14"/>
+    <row r="14" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C14" s="6" t="s">
         <v>30</v>
       </c>
@@ -1483,9 +1471,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="14"/>
+    <row r="15" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C15" s="6" t="s">
         <v>32</v>
       </c>
@@ -1493,9 +1485,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="14"/>
+    <row r="16" spans="1:4" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C16" s="6" t="s">
         <v>34</v>
       </c>
@@ -1503,9 +1499,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="14"/>
+    <row r="17" spans="1:4" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C17" s="6" t="s">
         <v>36</v>
       </c>
@@ -1513,9 +1513,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="14"/>
+    <row r="18" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C18" s="6" t="s">
         <v>38</v>
       </c>
@@ -1523,9 +1527,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="14"/>
+    <row r="19" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C19" s="6" t="s">
         <v>40</v>
       </c>
@@ -1533,9 +1541,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="14"/>
+    <row r="20" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C20" s="6" t="s">
         <v>42</v>
       </c>
@@ -1543,9 +1555,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="14"/>
+    <row r="21" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C21" s="6" t="s">
         <v>44</v>
       </c>
@@ -1553,9 +1569,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="14"/>
+    <row r="22" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C22" s="6" t="s">
         <v>46</v>
       </c>
@@ -1563,9 +1583,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="14"/>
+    <row r="23" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C23" s="6" t="s">
         <v>48</v>
       </c>
@@ -1573,9 +1597,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="14"/>
+    <row r="24" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C24" s="6" t="s">
         <v>50</v>
       </c>
@@ -1583,9 +1611,13 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="14"/>
+    <row r="25" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C25" s="6" t="s">
         <v>52</v>
       </c>
@@ -1593,9 +1625,13 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="14"/>
+    <row r="26" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C26" s="6" t="s">
         <v>54</v>
       </c>
@@ -1603,9 +1639,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="14"/>
+    <row r="27" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C27" s="6" t="s">
         <v>56</v>
       </c>
@@ -1613,9 +1653,13 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="14"/>
+    <row r="28" spans="1:4" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C28" s="6" t="s">
         <v>58</v>
       </c>
@@ -1623,9 +1667,13 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="14"/>
+    <row r="29" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C29" s="6" t="s">
         <v>60</v>
       </c>
@@ -1633,9 +1681,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="14"/>
+    <row r="30" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C30" s="6" t="s">
         <v>62</v>
       </c>
@@ -1643,9 +1695,13 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="14"/>
+    <row r="31" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C31" s="6" t="s">
         <v>64</v>
       </c>
@@ -1653,9 +1709,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="14"/>
+    <row r="32" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C32" s="6" t="s">
         <v>66</v>
       </c>
@@ -1663,9 +1723,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="14"/>
+    <row r="33" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C33" s="6" t="s">
         <v>68</v>
       </c>
@@ -1673,9 +1737,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="14"/>
+    <row r="34" spans="1:4" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C34" s="6" t="s">
         <v>70</v>
       </c>
@@ -1683,9 +1751,13 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="14"/>
+    <row r="35" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C35" s="6" t="s">
         <v>72</v>
       </c>
@@ -1693,9 +1765,13 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="14"/>
+    <row r="36" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C36" s="6" t="s">
         <v>74</v>
       </c>
@@ -1703,9 +1779,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="14"/>
+    <row r="37" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C37" s="6" t="s">
         <v>76</v>
       </c>
@@ -1713,9 +1793,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="14"/>
+    <row r="38" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C38" s="6" t="s">
         <v>78</v>
       </c>
@@ -1723,9 +1807,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="14"/>
+    <row r="39" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C39" s="6" t="s">
         <v>80</v>
       </c>
@@ -1733,9 +1821,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="14"/>
+    <row r="40" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C40" s="6" t="s">
         <v>82</v>
       </c>
@@ -1743,9 +1835,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="14"/>
+    <row r="41" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C41" s="6" t="s">
         <v>84</v>
       </c>
@@ -1753,9 +1849,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="14"/>
+    <row r="42" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C42" s="6" t="s">
         <v>86</v>
       </c>
@@ -1763,9 +1863,13 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="14"/>
+    <row r="43" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C43" s="6" t="s">
         <v>88</v>
       </c>
@@ -1773,9 +1877,13 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
-      <c r="B44" s="14"/>
+    <row r="44" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C44" s="6" t="s">
         <v>90</v>
       </c>
@@ -1783,9 +1891,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
-      <c r="B45" s="14"/>
+    <row r="45" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C45" s="6" t="s">
         <v>92</v>
       </c>
@@ -1793,9 +1905,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
-      <c r="B46" s="14"/>
+    <row r="46" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C46" s="6" t="s">
         <v>94</v>
       </c>
@@ -1803,9 +1919,13 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
-      <c r="B47" s="14"/>
+    <row r="47" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C47" s="6" t="s">
         <v>96</v>
       </c>
@@ -1813,9 +1933,13 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
-      <c r="B48" s="14"/>
+    <row r="48" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C48" s="6" t="s">
         <v>98</v>
       </c>
@@ -1823,9 +1947,13 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
-      <c r="B49" s="14"/>
+    <row r="49" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C49" s="6" t="s">
         <v>100</v>
       </c>
@@ -1833,9 +1961,13 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
-      <c r="B50" s="14"/>
+    <row r="50" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C50" s="6" t="s">
         <v>102</v>
       </c>
@@ -1843,9 +1975,13 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
-      <c r="B51" s="14"/>
+    <row r="51" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C51" s="6" t="s">
         <v>104</v>
       </c>
@@ -1853,9 +1989,13 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="11"/>
-      <c r="B52" s="14"/>
+    <row r="52" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C52" s="6" t="s">
         <v>106</v>
       </c>
@@ -1863,9 +2003,13 @@
         <v>107</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
-      <c r="B53" s="14"/>
+    <row r="53" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C53" s="6" t="s">
         <v>108</v>
       </c>
@@ -1873,9 +2017,13 @@
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
-      <c r="B54" s="14"/>
+    <row r="54" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C54" s="6" t="s">
         <v>110</v>
       </c>
@@ -1883,9 +2031,13 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
-      <c r="B55" s="14"/>
+    <row r="55" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C55" s="6" t="s">
         <v>112</v>
       </c>
@@ -1893,9 +2045,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
-      <c r="B56" s="14"/>
+    <row r="56" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C56" s="6" t="s">
         <v>114</v>
       </c>
@@ -1903,9 +2059,13 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
-      <c r="B57" s="14"/>
+    <row r="57" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C57" s="6" t="s">
         <v>116</v>
       </c>
@@ -1913,9 +2073,13 @@
         <v>117</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
-      <c r="B58" s="14"/>
+    <row r="58" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C58" s="6" t="s">
         <v>118</v>
       </c>
@@ -1923,9 +2087,13 @@
         <v>119</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
-      <c r="B59" s="14"/>
+    <row r="59" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C59" s="6" t="s">
         <v>120</v>
       </c>
@@ -1933,9 +2101,13 @@
         <v>121</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
-      <c r="B60" s="14"/>
+    <row r="60" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C60" s="6" t="s">
         <v>122</v>
       </c>
@@ -1943,9 +2115,13 @@
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
-      <c r="B61" s="14"/>
+    <row r="61" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C61" s="6" t="s">
         <v>124</v>
       </c>
@@ -1953,9 +2129,13 @@
         <v>125</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="11"/>
-      <c r="B62" s="14"/>
+    <row r="62" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C62" s="6" t="s">
         <v>126</v>
       </c>
@@ -1963,9 +2143,13 @@
         <v>127</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
-      <c r="B63" s="14"/>
+    <row r="63" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C63" s="6" t="s">
         <v>128</v>
       </c>
@@ -1973,9 +2157,13 @@
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
-      <c r="B64" s="14"/>
+    <row r="64" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C64" s="6" t="s">
         <v>130</v>
       </c>
@@ -1983,9 +2171,13 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
-      <c r="B65" s="14"/>
+    <row r="65" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C65" s="6" t="s">
         <v>132</v>
       </c>
@@ -1993,9 +2185,13 @@
         <v>133</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
-      <c r="B66" s="14"/>
+    <row r="66" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C66" s="6" t="s">
         <v>134</v>
       </c>
@@ -2003,9 +2199,13 @@
         <v>135</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
-      <c r="B67" s="14"/>
+    <row r="67" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C67" s="6" t="s">
         <v>136</v>
       </c>
@@ -2013,9 +2213,13 @@
         <v>137</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A68" s="11"/>
-      <c r="B68" s="14"/>
+    <row r="68" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C68" s="6" t="s">
         <v>138</v>
       </c>
@@ -2023,9 +2227,13 @@
         <v>139</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A69" s="11"/>
-      <c r="B69" s="14"/>
+    <row r="69" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C69" s="6" t="s">
         <v>140</v>
       </c>
@@ -2033,9 +2241,13 @@
         <v>141</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
-      <c r="B70" s="14"/>
+    <row r="70" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C70" s="6" t="s">
         <v>142</v>
       </c>
@@ -2043,9 +2255,13 @@
         <v>143</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="11"/>
-      <c r="B71" s="14"/>
+    <row r="71" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C71" s="6" t="s">
         <v>144</v>
       </c>
@@ -2053,9 +2269,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="11"/>
-      <c r="B72" s="14"/>
+    <row r="72" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C72" s="6" t="s">
         <v>146</v>
       </c>
@@ -2063,9 +2283,13 @@
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A73" s="11"/>
-      <c r="B73" s="14"/>
+    <row r="73" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C73" s="6" t="s">
         <v>148</v>
       </c>
@@ -2073,9 +2297,13 @@
         <v>149</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="11"/>
-      <c r="B74" s="14"/>
+    <row r="74" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C74" s="6" t="s">
         <v>150</v>
       </c>
@@ -2083,9 +2311,13 @@
         <v>151</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A75" s="11"/>
-      <c r="B75" s="14"/>
+    <row r="75" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C75" s="6" t="s">
         <v>152</v>
       </c>
@@ -2093,9 +2325,13 @@
         <v>153</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="11"/>
-      <c r="B76" s="14"/>
+    <row r="76" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C76" s="6" t="s">
         <v>154</v>
       </c>
@@ -2103,9 +2339,13 @@
         <v>155</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="11"/>
-      <c r="B77" s="14"/>
+    <row r="77" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C77" s="6" t="s">
         <v>156</v>
       </c>
@@ -2113,9 +2353,13 @@
         <v>157</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
-      <c r="B78" s="14"/>
+    <row r="78" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C78" s="6" t="s">
         <v>158</v>
       </c>
@@ -2123,9 +2367,13 @@
         <v>159</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
-      <c r="B79" s="14"/>
+    <row r="79" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C79" s="6" t="s">
         <v>160</v>
       </c>
@@ -2133,9 +2381,13 @@
         <v>161</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A80" s="11"/>
-      <c r="B80" s="14"/>
+    <row r="80" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C80" s="6" t="s">
         <v>162</v>
       </c>
@@ -2143,9 +2395,13 @@
         <v>163</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A81" s="11"/>
-      <c r="B81" s="14"/>
+    <row r="81" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C81" s="6" t="s">
         <v>164</v>
       </c>
@@ -2153,9 +2409,13 @@
         <v>165</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="210" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
-      <c r="B82" s="14"/>
+    <row r="82" spans="1:4" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C82" s="6" t="s">
         <v>166</v>
       </c>
@@ -2163,9 +2423,13 @@
         <v>167</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
-      <c r="B83" s="14"/>
+    <row r="83" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C83" s="6" t="s">
         <v>168</v>
       </c>
@@ -2173,9 +2437,13 @@
         <v>169</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A84" s="11"/>
-      <c r="B84" s="14"/>
+    <row r="84" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C84" s="6" t="s">
         <v>170</v>
       </c>
@@ -2183,9 +2451,13 @@
         <v>171</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="11"/>
-      <c r="B85" s="14"/>
+    <row r="85" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C85" s="6" t="s">
         <v>172</v>
       </c>
@@ -2193,9 +2465,13 @@
         <v>173</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A86" s="11"/>
-      <c r="B86" s="14"/>
+    <row r="86" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C86" s="6" t="s">
         <v>174</v>
       </c>
@@ -2203,9 +2479,13 @@
         <v>175</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="11"/>
-      <c r="B87" s="14"/>
+    <row r="87" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C87" s="6" t="s">
         <v>176</v>
       </c>
@@ -2213,9 +2493,13 @@
         <v>177</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="11"/>
-      <c r="B88" s="14"/>
+    <row r="88" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C88" s="6" t="s">
         <v>178</v>
       </c>
@@ -2223,9 +2507,13 @@
         <v>179</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A89" s="11"/>
-      <c r="B89" s="14"/>
+    <row r="89" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C89" s="6" t="s">
         <v>180</v>
       </c>
@@ -2233,9 +2521,13 @@
         <v>181</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="11"/>
-      <c r="B90" s="14"/>
+    <row r="90" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C90" s="6" t="s">
         <v>182</v>
       </c>
@@ -2243,9 +2535,13 @@
         <v>183</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A91" s="11"/>
-      <c r="B91" s="14"/>
+    <row r="91" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C91" s="6" t="s">
         <v>184</v>
       </c>
@@ -2253,9 +2549,13 @@
         <v>185</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="11"/>
-      <c r="B92" s="14"/>
+    <row r="92" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C92" s="6" t="s">
         <v>186</v>
       </c>
@@ -2263,9 +2563,13 @@
         <v>187</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" s="11"/>
-      <c r="B93" s="14"/>
+    <row r="93" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C93" s="6" t="s">
         <v>188</v>
       </c>
@@ -2273,9 +2577,13 @@
         <v>189</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A94" s="11"/>
-      <c r="B94" s="14"/>
+    <row r="94" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C94" s="6" t="s">
         <v>190</v>
       </c>
@@ -2283,9 +2591,13 @@
         <v>191</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A95" s="11"/>
-      <c r="B95" s="14"/>
+    <row r="95" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C95" s="6" t="s">
         <v>192</v>
       </c>
@@ -2293,9 +2605,13 @@
         <v>193</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A96" s="11"/>
-      <c r="B96" s="14"/>
+    <row r="96" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C96" s="6" t="s">
         <v>194</v>
       </c>
@@ -2303,9 +2619,13 @@
         <v>195</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A97" s="11"/>
-      <c r="B97" s="14"/>
+    <row r="97" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C97" s="6" t="s">
         <v>196</v>
       </c>
@@ -2313,9 +2633,13 @@
         <v>197</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A98" s="11"/>
-      <c r="B98" s="14"/>
+    <row r="98" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C98" s="6" t="s">
         <v>198</v>
       </c>
@@ -2323,9 +2647,13 @@
         <v>199</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="11"/>
-      <c r="B99" s="14"/>
+    <row r="99" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C99" s="6" t="s">
         <v>200</v>
       </c>
@@ -2333,9 +2661,13 @@
         <v>201</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A100" s="11"/>
-      <c r="B100" s="14"/>
+    <row r="100" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C100" s="6" t="s">
         <v>202</v>
       </c>
@@ -2343,9 +2675,13 @@
         <v>203</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A101" s="11"/>
-      <c r="B101" s="14"/>
+    <row r="101" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C101" s="6" t="s">
         <v>204</v>
       </c>
@@ -2353,9 +2689,13 @@
         <v>205</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="11"/>
-      <c r="B102" s="14"/>
+    <row r="102" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C102" s="6" t="s">
         <v>206</v>
       </c>
@@ -2363,9 +2703,13 @@
         <v>207</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A103" s="11"/>
-      <c r="B103" s="14"/>
+    <row r="103" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C103" s="6" t="s">
         <v>208</v>
       </c>
@@ -2373,9 +2717,13 @@
         <v>209</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="11"/>
-      <c r="B104" s="14"/>
+    <row r="104" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C104" s="6" t="s">
         <v>210</v>
       </c>
@@ -2383,9 +2731,13 @@
         <v>211</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A105" s="11"/>
-      <c r="B105" s="14"/>
+    <row r="105" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C105" s="6" t="s">
         <v>212</v>
       </c>
@@ -2393,9 +2745,13 @@
         <v>213</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A106" s="11"/>
-      <c r="B106" s="14"/>
+    <row r="106" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C106" s="6" t="s">
         <v>214</v>
       </c>
@@ -2403,9 +2759,13 @@
         <v>215</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A107" s="11"/>
-      <c r="B107" s="14"/>
+    <row r="107" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C107" s="6" t="s">
         <v>216</v>
       </c>
@@ -2413,9 +2773,13 @@
         <v>217</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="11"/>
-      <c r="B108" s="14"/>
+    <row r="108" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C108" s="6" t="s">
         <v>218</v>
       </c>
@@ -2423,9 +2787,13 @@
         <v>219</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="11"/>
-      <c r="B109" s="14"/>
+    <row r="109" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C109" s="6" t="s">
         <v>220</v>
       </c>
@@ -2433,9 +2801,13 @@
         <v>221</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A110" s="11"/>
-      <c r="B110" s="14"/>
+    <row r="110" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C110" s="6" t="s">
         <v>222</v>
       </c>
@@ -2443,9 +2815,13 @@
         <v>223</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A111" s="11"/>
-      <c r="B111" s="14"/>
+    <row r="111" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C111" s="6" t="s">
         <v>224</v>
       </c>
@@ -2453,9 +2829,13 @@
         <v>225</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A112" s="11"/>
-      <c r="B112" s="14"/>
+    <row r="112" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C112" s="6" t="s">
         <v>226</v>
       </c>
@@ -2463,9 +2843,13 @@
         <v>227</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A113" s="11"/>
-      <c r="B113" s="14"/>
+    <row r="113" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C113" s="6" t="s">
         <v>228</v>
       </c>
@@ -2473,9 +2857,13 @@
         <v>229</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114" s="11"/>
-      <c r="B114" s="14"/>
+    <row r="114" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C114" s="6" t="s">
         <v>230</v>
       </c>
@@ -2483,9 +2871,13 @@
         <v>231</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="195" x14ac:dyDescent="0.25">
-      <c r="A115" s="11"/>
-      <c r="B115" s="14"/>
+    <row r="115" spans="1:4" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C115" s="6" t="s">
         <v>232</v>
       </c>
@@ -2493,9 +2885,13 @@
         <v>233</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A116" s="11"/>
-      <c r="B116" s="14"/>
+    <row r="116" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C116" s="6" t="s">
         <v>234</v>
       </c>
@@ -2503,9 +2899,13 @@
         <v>235</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A117" s="11"/>
-      <c r="B117" s="14"/>
+    <row r="117" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C117" s="6" t="s">
         <v>236</v>
       </c>
@@ -2513,9 +2913,13 @@
         <v>237</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A118" s="11"/>
-      <c r="B118" s="14"/>
+    <row r="118" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C118" s="6" t="s">
         <v>238</v>
       </c>
@@ -2523,9 +2927,13 @@
         <v>239</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A119" s="11"/>
-      <c r="B119" s="14"/>
+    <row r="119" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C119" s="6" t="s">
         <v>240</v>
       </c>
@@ -2533,9 +2941,13 @@
         <v>241</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A120" s="11"/>
-      <c r="B120" s="14"/>
+    <row r="120" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C120" s="6" t="s">
         <v>242</v>
       </c>
@@ -2543,9 +2955,13 @@
         <v>243</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A121" s="11"/>
-      <c r="B121" s="14"/>
+    <row r="121" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C121" s="6" t="s">
         <v>244</v>
       </c>
@@ -2553,9 +2969,13 @@
         <v>245</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A122" s="11"/>
-      <c r="B122" s="14"/>
+    <row r="122" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C122" s="6" t="s">
         <v>246</v>
       </c>
@@ -2563,9 +2983,13 @@
         <v>247</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="12"/>
-      <c r="B123" s="15"/>
+    <row r="123" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="C123" s="8" t="s">
         <v>248</v>
       </c>
@@ -2574,10 +2998,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A123"/>
-    <mergeCell ref="B2:B123"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
